--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/PENNSYLVANIA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/PENNSYLVANIA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D996"/>
+  <dimension ref="A1:D990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C17">
@@ -615,7 +615,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C18">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C21">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C25">
@@ -1488,7 +1488,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C88">
@@ -1810,7 +1810,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C108">
@@ -1849,13 +1849,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C111">
@@ -1881,7 +1880,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C113">
@@ -1894,7 +1893,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C114">
@@ -1907,7 +1906,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C115">
@@ -1972,7 +1971,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C120">
@@ -2050,7 +2049,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C126">
@@ -2076,7 +2075,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C128">
@@ -2154,7 +2153,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C134">
@@ -2206,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C138">
@@ -2278,7 +2277,7 @@
         <v>62</v>
       </c>
       <c r="D143">
-        <v>0.009503372164316371</v>
+        <v>0.009503372164316373</v>
       </c>
     </row>
     <row r="144">
@@ -2362,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C150">
@@ -2453,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C157">
@@ -2466,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C158">
@@ -2479,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C159">
@@ -2505,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C161">
@@ -2609,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C169">
@@ -2726,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C178">
@@ -2804,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C184">
@@ -2817,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C185">
@@ -2830,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C186">
@@ -2843,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C187">
@@ -3004,7 +3003,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C199">
@@ -3017,7 +3016,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C200">
@@ -3030,7 +3029,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C201">
@@ -3108,7 +3107,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C207">
@@ -3160,7 +3159,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C211">
@@ -3251,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C218">
@@ -3290,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C221">
@@ -3316,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C223">
@@ -3329,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C224">
@@ -3342,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C225">
@@ -3368,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C227">
@@ -3420,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C231">
@@ -3490,7 +3489,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C236">
@@ -3529,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C239">
@@ -3542,7 +3541,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C240">
@@ -3581,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C243">
@@ -3594,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C244">
@@ -3607,7 +3606,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C245">
@@ -3620,7 +3619,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C246">
@@ -3646,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C248">
@@ -3659,7 +3658,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C249">
@@ -3672,7 +3671,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C250">
@@ -3737,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C255">
@@ -3750,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C256">
@@ -3802,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C260">
@@ -3815,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C261">
@@ -3893,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C267">
@@ -3906,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C268">
@@ -3919,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C269">
@@ -3958,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C272">
@@ -4127,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C285">
@@ -4153,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C287">
@@ -4179,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C289">
@@ -4205,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C291">
@@ -4244,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C294">
@@ -4257,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C295">
@@ -4368,7 +4367,7 @@
         <v>649</v>
       </c>
       <c r="D303">
-        <v>0.09947884733292459</v>
+        <v>0.0994788473329246</v>
       </c>
     </row>
     <row r="304">
@@ -4418,7 +4417,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C307">
@@ -4470,7 +4469,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C311">
@@ -4535,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C316">
@@ -4574,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C319">
@@ -4613,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C322">
@@ -4626,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C323">
@@ -4639,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C324">
@@ -4652,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C325">
@@ -4678,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C327">
@@ -4691,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C328">
@@ -4704,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C329">
@@ -4730,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C331">
@@ -4808,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C337">
@@ -4847,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C340">
@@ -4873,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C342">
@@ -4886,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C343">
@@ -4938,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C347">
@@ -4951,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C348">
@@ -4964,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C349">
@@ -4977,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C350">
@@ -5021,7 +5020,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C353">
@@ -5060,7 +5059,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C356">
@@ -5073,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C357">
@@ -5125,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C361">
@@ -5151,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C363">
@@ -5164,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C364">
@@ -5216,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C368">
@@ -5255,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C371">
@@ -5281,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C373">
@@ -5294,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C374">
@@ -5333,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C377">
@@ -5372,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C380">
@@ -5398,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C382">
@@ -5476,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C388">
@@ -5689,7 +5688,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C404">
@@ -6500,7 +6499,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C466">
@@ -6617,7 +6616,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C475">
@@ -6669,7 +6668,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C479">
@@ -6682,7 +6681,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C480">
@@ -6747,7 +6746,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C485">
@@ -6791,7 +6790,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C488">
@@ -7035,7 +7034,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C506">
@@ -7061,7 +7060,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C508">
@@ -7126,7 +7125,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C513">
@@ -7139,7 +7138,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C514">
@@ -7152,7 +7151,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C515">
@@ -7165,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C516">
@@ -7178,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C517">
@@ -7191,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C518">
@@ -7204,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C519">
@@ -7217,7 +7216,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C520">
@@ -7256,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C523">
@@ -7308,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C527">
@@ -7321,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C528">
@@ -7334,7 +7333,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C529">
@@ -7477,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C540">
@@ -7555,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C546">
@@ -7646,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C553">
@@ -7685,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C556">
@@ -8699,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C634">
@@ -8725,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C636">
@@ -8751,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C638">
@@ -8764,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C639">
@@ -8777,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C640">
@@ -8790,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C641">
@@ -9055,7 +9054,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C661">
@@ -9198,7 +9197,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C672">
@@ -9263,7 +9262,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C677">
@@ -9315,7 +9314,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C681">
@@ -9328,7 +9327,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C682">
@@ -9484,7 +9483,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C694">
@@ -9536,7 +9535,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C698">
@@ -9562,7 +9561,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C700">
@@ -9601,7 +9600,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C703">
@@ -9692,7 +9691,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C710">
@@ -9783,7 +9782,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C717">
@@ -10017,7 +10016,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C735">
@@ -10056,7 +10055,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C738">
@@ -10069,7 +10068,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C739">
@@ -10134,7 +10133,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C744">
@@ -10212,7 +10211,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C750">
@@ -10225,7 +10224,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C751">
@@ -10238,7 +10237,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C752">
@@ -10303,7 +10302,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C757">
@@ -10316,7 +10315,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C758">
@@ -10381,7 +10380,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C763">
@@ -10505,7 +10504,7 @@
         <v>62</v>
       </c>
       <c r="D772">
-        <v>0.009503372164316371</v>
+        <v>0.009503372164316373</v>
       </c>
     </row>
     <row r="773">
@@ -10524,7 +10523,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C774">
@@ -10711,7 +10710,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C788">
@@ -10724,7 +10723,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C789">
@@ -10776,7 +10775,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C793">
@@ -10789,7 +10788,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C794">
@@ -10828,7 +10827,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C797">
@@ -10968,7 +10967,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C807">
@@ -11020,7 +11019,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C811">
@@ -11059,7 +11058,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C814">
@@ -11072,7 +11071,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C815">
@@ -11098,7 +11097,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C817">
@@ -11111,7 +11110,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C818">
@@ -11124,7 +11123,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C819">
@@ -11612,7 +11611,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C855">
@@ -11669,7 +11668,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C859">
@@ -11721,7 +11720,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C863">
@@ -11786,7 +11785,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C868">
@@ -11799,7 +11798,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C869">
@@ -11864,7 +11863,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C874">
@@ -11903,7 +11902,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C877">
@@ -11942,7 +11941,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C880">
@@ -12116,7 +12115,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C893">
@@ -12155,7 +12154,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C896">
@@ -12207,7 +12206,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C900">
@@ -12324,7 +12323,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C909">
@@ -12454,7 +12453,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C919">
@@ -12467,7 +12466,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C920">
@@ -12493,7 +12492,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C922">
@@ -12506,7 +12505,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C923">
@@ -12584,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C929">
@@ -12623,7 +12622,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C932">
@@ -12636,7 +12635,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C933">
@@ -12649,7 +12648,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C934">
@@ -12688,7 +12687,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C937">
@@ -12779,7 +12778,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C944">
@@ -12792,7 +12791,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C945">
@@ -12831,7 +12830,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C948">
@@ -12883,7 +12882,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C952">
@@ -12896,7 +12895,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C953">
@@ -13078,7 +13077,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C967">
@@ -13143,7 +13142,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C972">
@@ -13291,7 +13290,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C983">
@@ -13304,7 +13303,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C984">
@@ -13317,7 +13316,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C985">
@@ -13390,41 +13389,6 @@
       </c>
       <c r="D990">
         <v>1</v>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
